--- a/001.UNIX-DOCS/000.内存管理/Linux内核内存布局.xlsx
+++ b/001.UNIX-DOCS/000.内存管理/Linux内核内存布局.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12570"/>
+    <workbookView windowWidth="28800" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="内存宏定义" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
   <si>
     <t>VMEMMAP_SIZE</t>
   </si>
@@ -99,6 +100,41 @@
   </si>
   <si>
     <t>000.LINUX-5.9/arch/arm64/kernel/setup.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SYM_DATA_START(kimage_vaddr)               //  开始定义数据符号 kimage_vaddr
+ .quad  _text - TEXT_OFFSET                          //  存储一个64位值：_text - TEXT_OFFSET
+SYM_DATA_END(kimage_vaddr)  </t>
+  </si>
+  <si>
+    <t>str_l x4, kimage_voffset, x5</t>
+  </si>
+  <si>
+    <t>sub x4, x4, x0      : x4=x0-x4 = kimage_voffset =  __PHYS_OFFSET - kimage_vaddr</t>
+  </si>
+  <si>
+    <t>ldr_l x4, kimage_vaddr</t>
+  </si>
+  <si>
+    <t>adrp x0, __PHYS_OFFSET</t>
+  </si>
+  <si>
+    <t>primary_entry</t>
+  </si>
+  <si>
+    <t>bl __relocate_kernel</t>
+  </si>
+  <si>
+    <t>bl __enable_mmu</t>
+  </si>
+  <si>
+    <t>adrp x23, __PHYS_OFFSET</t>
+  </si>
+  <si>
+    <t>#define __PHYS_OFFSET (KERNEL_START - TEXT_OFFSET)</t>
+  </si>
+  <si>
+    <t>KERNEL_START  = _text, TEXT_OFFSET=0x0</t>
   </si>
 </sst>
 </file>
@@ -270,12 +306,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -602,7 +644,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -626,16 +668,16 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -644,99 +686,108 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1269,7 +1320,7 @@
   <sheetPr/>
   <dimension ref="A2:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
@@ -1282,27 +1333,27 @@
   </cols>
   <sheetData>
     <row r="2" spans="9:9">
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="7" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="9:9">
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="7" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="9:9">
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="7" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="9:9">
-      <c r="I5" s="4" t="s">
+      <c r="I5" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="9:9">
-      <c r="I6" s="4" t="s">
+      <c r="I6" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1365,23 +1416,23 @@
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="5" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="3"/>
+      <c r="A21" s="6"/>
     </row>
     <row r="22" ht="42" customHeight="1" spans="1:1">
-      <c r="A22" s="3"/>
+      <c r="A22" s="6"/>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="4" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1402,4 +1453,85 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="H1:K21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
+  <cols>
+    <col min="8" max="8" width="16.75" customWidth="1"/>
+    <col min="9" max="9" width="81.125" customWidth="1"/>
+    <col min="10" max="10" width="46.125" customWidth="1"/>
+    <col min="11" max="11" width="44.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="87" customHeight="1" spans="10:11">
+      <c r="J1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" s="2"/>
+    </row>
+    <row r="11" spans="9:9">
+      <c r="I11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="9:9">
+      <c r="I12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="9:9">
+      <c r="I13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="9:9">
+      <c r="I15" s="3"/>
+    </row>
+    <row r="16" spans="9:9">
+      <c r="I16" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="8:9">
+      <c r="H17" t="s">
+        <v>28</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="9:9">
+      <c r="I18" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="9:9">
+      <c r="I19" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="9:10">
+      <c r="I21" t="s">
+        <v>32</v>
+      </c>
+      <c r="J21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="J1:K1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>